--- a/biology/Médecine/Assori_Itoua_Ngaporo/Assori_Itoua_Ngaporo.xlsx
+++ b/biology/Médecine/Assori_Itoua_Ngaporo/Assori_Itoua_Ngaporo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Assori Itoua Ngaporo, né le 22 juillet 1944 à Ello (Congo) est un professeur émérite de l’université Marien Ngouabi de Brazzaville et Praticien hospitalier, Spécialiste d’Hépatologie-gastroentérologie  et  d’infection VIH/SIDA, ancien Doyen de la Faculté de Médecine de Brazzaville, président de l’Académie nationale des sciences et technologies du Congo et délégué général à la Recherche scientifique depuis le 31 décembre 1998.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Assori Itoua Ngaporo est né le 22 juillet 1944 à Ello, village situé dans le district d’ollombo, en République du Congo-Brazzaville. Il s’est marié le 19 août 1974 à Lille en France avec Adèle Philomène Ossenguet ; il est père de cinq enfants.
 Après un cycle primaire à Ngagna (région des Plateaux) et à Tsambitso (région de la Cuvette), il entre au collège Chaminade de Brazzaville, où il obtient le BEPEC en 1960 puis le BAC  en 1963 (série sciences expérimentales, série D actuelle). En juin 1964, après l’obtention du certificat préparatoire des études médicales (CPEM) à l’école des sciences du Centre d’enseignement supérieur de Brazzaville (CESB), il s’envole pour la France où il s’inscrit à la Faculté de médecine de Lille ;  Il y accomplit les études médicales de 1964 à 1970. En 1969, il revient au Congo pour effectuer un stage d’internat à l’Hôpital Général de Brazzaville. C’est là qu’il découvre la richesse et la variété de la pathologie tropicale face au manque criard des personnels soignants et à la pénurie des équipements techniques; c’est là également qu’il s’initie à la
@@ -552,7 +566,9 @@
           <t>Engagement associatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Assori Itoua-Ngaporo est membre de 14 sociétés savantes. Il a été président fondateur de la Société médicale du Congo et de la Société congolaise de gastro-entérologie. Il a été rédacteur en chef de la Revue médicale du Congo. Il est ancien membre de la Conférence internationale des doyens des facultés de médecine d’expression française (CIDMEF) et de la Conférence africaine des doyens des facultés de médecine d’expression française (CADMEF). Enfin il a été membre du Conseil de l’Organisation Internationale des Palmes Académiques (OIPA) du CAMES.
 </t>
@@ -583,7 +599,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Assori Itoua-Ngaporo est signataire de plus de plusieurs articles scientifiques et de livres :
 Contribution à l’étude des léiomyomes du duodénum. Thèse médecine, Lille, 29 juin 1972, 174p.
@@ -618,7 +636,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le professeur Assori Itoua-Ngaporo a été honoré par de nombreuses distinctions de la France, du CAMES, de son pays et d’autres pays africains :
 Chevalier des Palmes Académiques françaises en 1985 ;
